--- a/backend-bulljs/uploads/student.xlsx
+++ b/backend-bulljs/uploads/student.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>mohan.k@gmail.com</t>
-  </si>
-  <si>
-    <t>1998/13/11</t>
   </si>
   <si>
     <t>sus</t>
@@ -104,9 +101,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -391,12 +389,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -417,30 +416,30 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2" s="2">
+        <v>36112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
